--- a/管理・設計ドキュメント/02_基本設計/13x.テーブル設計/132.テーブル定義28（tag_masters）タグマスタ.xlsx
+++ b/管理・設計ドキュメント/02_基本設計/13x.テーブル設計/132.テーブル定義28（tag_masters）タグマスタ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VM\VM-DISK\④php_laravelプロジェクト\02_基本設計\13x.テーブル設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D610662D-C451-41CD-939F-F8E568903BAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E47F88-9D29-4795-AD6D-3E5AF92014A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1725" yWindow="285" windowWidth="24375" windowHeight="14925" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,9 +964,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>children_tag</t>
-  </si>
-  <si>
     <t>子タグ</t>
     <rPh sb="0" eb="1">
       <t>コ</t>
@@ -1025,6 +1022,10 @@
     <rPh sb="81" eb="83">
       <t>カクノウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>children_tag</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1496,7 +1497,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s3217"/>
+                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s3220"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1631,7 +1632,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s4211"/>
+                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s4214"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2551,7 +2552,7 @@
   <dimension ref="A7:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
@@ -2718,10 +2719,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="41" t="s">
         <v>83</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>84</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>39</v>
@@ -2731,7 +2732,7 @@
       <c r="G13" s="41"/>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="27">
